--- a/src/assets/ExcelSample/ThuongMaiBienGioiTongQuan.xlsx
+++ b/src/assets/ExcelSample/ThuongMaiBienGioiTongQuan.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="autoNoTable"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -38,9 +38,6 @@
     <t>Loại hình</t>
   </si>
   <si>
-    <t>Giá trị</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cửa khẩu Quốc tế Hoa Lư </t>
   </si>
   <si>
@@ -71,21 +68,6 @@
     <t>Tổng Kim ngạch các Cửa khẩu</t>
   </si>
   <si>
-    <t>So với cùng kỳ</t>
-  </si>
-  <si>
-    <t>So với tháng trước</t>
-  </si>
-  <si>
-    <t>Giá trị (Cộng dồn)</t>
-  </si>
-  <si>
-    <t>So với cùng kỳ (Cộng dồn)</t>
-  </si>
-  <si>
-    <t>So với tháng trước (Cộng dồn)</t>
-  </si>
-  <si>
     <t>Triệu USD</t>
   </si>
   <si>
@@ -102,6 +84,27 @@
   </si>
   <si>
     <t>IV</t>
+  </si>
+  <si>
+    <t>Thực hiện cùng kì năm trước</t>
+  </si>
+  <si>
+    <t>Lũy kế cùng kì năm trước</t>
+  </si>
+  <si>
+    <t>Thực hiện tháng</t>
+  </si>
+  <si>
+    <t>Lũy kế kì báo cáo</t>
+  </si>
+  <si>
+    <t>So sánh với thực hiện kì trước</t>
+  </si>
+  <si>
+    <t>So sánh với thực hiện cùng kì năm trước</t>
+  </si>
+  <si>
+    <t>So sánh lũy kế với cùng kì năm trước</t>
   </si>
 </sst>
 </file>
@@ -517,7 +520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -529,18 +532,17 @@
     <col min="2" max="2" width="7.33203125" style="9" customWidth="1"/>
     <col min="3" max="3" width="33.6640625" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.88671875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="10" customWidth="1"/>
-    <col min="6" max="9" width="14.6640625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="15.77734375" style="9" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="9"/>
+    <col min="5" max="5" width="16.109375" style="10" customWidth="1"/>
+    <col min="6" max="11" width="16.109375" style="9" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
@@ -549,36 +551,39 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>241</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -586,8 +591,9 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
-    </row>
-    <row r="3" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>242</v>
       </c>
@@ -595,10 +601,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -606,8 +612,9 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>243</v>
       </c>
@@ -615,10 +622,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -626,8 +633,9 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>244</v>
       </c>
@@ -638,7 +646,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -646,8 +654,9 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>245</v>
       </c>
@@ -655,10 +664,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -666,8 +675,9 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>246</v>
       </c>
@@ -675,10 +685,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -686,8 +696,9 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>247</v>
       </c>
@@ -695,10 +706,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -706,19 +717,20 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>248</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -726,8 +738,9 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>249</v>
       </c>
@@ -735,10 +748,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -746,8 +759,9 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>250</v>
       </c>
@@ -755,10 +769,10 @@
         <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -766,8 +780,9 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>251</v>
       </c>
@@ -778,7 +793,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -786,8 +801,9 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>252</v>
       </c>
@@ -795,10 +811,10 @@
         <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -806,8 +822,9 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>253</v>
       </c>
@@ -815,10 +832,10 @@
         <v>5</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -826,8 +843,9 @@
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>254</v>
       </c>
@@ -835,10 +853,10 @@
         <v>6</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -846,19 +864,20 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>255</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -866,8 +885,9 @@
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
-    </row>
-    <row r="17" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>256</v>
       </c>
@@ -875,10 +895,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -886,8 +906,9 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
-    </row>
-    <row r="18" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>257</v>
       </c>
@@ -895,10 +916,10 @@
         <v>2</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -906,8 +927,9 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
-    </row>
-    <row r="19" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>258</v>
       </c>
@@ -918,7 +940,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -926,8 +948,9 @@
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
-    </row>
-    <row r="20" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>259</v>
       </c>
@@ -935,10 +958,10 @@
         <v>4</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -946,8 +969,9 @@
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
-    </row>
-    <row r="21" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>260</v>
       </c>
@@ -955,10 +979,10 @@
         <v>5</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -966,8 +990,9 @@
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
-    </row>
-    <row r="22" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>261</v>
       </c>
@@ -975,10 +1000,10 @@
         <v>6</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -986,19 +1011,20 @@
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>262</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -1006,8 +1032,9 @@
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
-    </row>
-    <row r="24" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>263</v>
       </c>
@@ -1015,10 +1042,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -1026,8 +1053,9 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
-    </row>
-    <row r="25" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>264</v>
       </c>
@@ -1035,10 +1063,10 @@
         <v>2</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -1046,8 +1074,9 @@
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
-    </row>
-    <row r="26" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>265</v>
       </c>
@@ -1058,7 +1087,7 @@
         <v>2</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -1066,8 +1095,9 @@
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
-    </row>
-    <row r="27" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>266</v>
       </c>
@@ -1075,10 +1105,10 @@
         <v>4</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
@@ -1086,8 +1116,9 @@
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
-    </row>
-    <row r="28" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>267</v>
       </c>
@@ -1095,10 +1126,10 @@
         <v>5</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -1106,8 +1137,9 @@
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
-    </row>
-    <row r="29" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>268</v>
       </c>
@@ -1115,10 +1147,10 @@
         <v>6</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -1126,6 +1158,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/assets/ExcelSample/ThuongMaiBienGioiTongQuan.xlsx
+++ b/src/assets/ExcelSample/ThuongMaiBienGioiTongQuan.xlsx
@@ -98,13 +98,13 @@
     <t>Lũy kế kì báo cáo</t>
   </si>
   <si>
-    <t>So sánh với thực hiện kì trước</t>
-  </si>
-  <si>
-    <t>So sánh với thực hiện cùng kì năm trước</t>
-  </si>
-  <si>
-    <t>So sánh lũy kế với cùng kì năm trước</t>
+    <t>ƯTH so với cùng kỳ năm trước</t>
+  </si>
+  <si>
+    <t>ƯTH so với tháng trước</t>
+  </si>
+  <si>
+    <t>ƯTH so với lũy kế cùng kỳ năm trước</t>
   </si>
 </sst>
 </file>
@@ -523,7 +523,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -563,10 +563,10 @@
         <v>23</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>26</v>

--- a/src/assets/ExcelSample/ThuongMaiBienGioiTongQuan.xlsx
+++ b/src/assets/ExcelSample/ThuongMaiBienGioiTongQuan.xlsx
@@ -71,9 +71,6 @@
     <t>Triệu USD</t>
   </si>
   <si>
-    <t>TT</t>
-  </si>
-  <si>
     <t>I</t>
   </si>
   <si>
@@ -105,6 +102,9 @@
   </si>
   <si>
     <t>ƯTH so với lũy kế cùng kỳ năm trước</t>
+  </si>
+  <si>
+    <t>STT</t>
   </si>
 </sst>
 </file>
@@ -523,12 +523,12 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4" style="9" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="7" style="9" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="7.33203125" style="9" customWidth="1"/>
     <col min="3" max="3" width="33.6640625" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.88671875" style="9" customWidth="1"/>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
@@ -551,33 +551,33 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>241</v>
+        <v>26</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>242</v>
+        <v>27</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="4" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>243</v>
+        <v>28</v>
       </c>
       <c r="B4" s="7">
         <v>2</v>
@@ -637,7 +637,7 @@
     </row>
     <row r="5" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>244</v>
+        <v>29</v>
       </c>
       <c r="B5" s="7">
         <v>3</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="6" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>245</v>
+        <v>30</v>
       </c>
       <c r="B6" s="7">
         <v>4</v>
@@ -679,7 +679,7 @@
     </row>
     <row r="7" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>246</v>
+        <v>31</v>
       </c>
       <c r="B7" s="7">
         <v>5</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="8" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>247</v>
+        <v>32</v>
       </c>
       <c r="B8" s="7">
         <v>6</v>
@@ -721,10 +721,10 @@
     </row>
     <row r="9" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>248</v>
+        <v>33</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
@@ -742,7 +742,7 @@
     </row>
     <row r="10" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>249</v>
+        <v>34</v>
       </c>
       <c r="B10" s="7">
         <v>1</v>
@@ -763,7 +763,7 @@
     </row>
     <row r="11" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>250</v>
+        <v>35</v>
       </c>
       <c r="B11" s="7">
         <v>2</v>
@@ -784,7 +784,7 @@
     </row>
     <row r="12" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>251</v>
+        <v>36</v>
       </c>
       <c r="B12" s="7">
         <v>3</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="13" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>252</v>
+        <v>37</v>
       </c>
       <c r="B13" s="7">
         <v>4</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="14" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>253</v>
+        <v>38</v>
       </c>
       <c r="B14" s="7">
         <v>5</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="15" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>254</v>
+        <v>39</v>
       </c>
       <c r="B15" s="7">
         <v>6</v>
@@ -868,10 +868,10 @@
     </row>
     <row r="16" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>255</v>
+        <v>40</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>12</v>
@@ -889,7 +889,7 @@
     </row>
     <row r="17" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>256</v>
+        <v>41</v>
       </c>
       <c r="B17" s="7">
         <v>1</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="18" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>257</v>
+        <v>42</v>
       </c>
       <c r="B18" s="7">
         <v>2</v>
@@ -931,7 +931,7 @@
     </row>
     <row r="19" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>258</v>
+        <v>43</v>
       </c>
       <c r="B19" s="7">
         <v>3</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="20" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>259</v>
+        <v>44</v>
       </c>
       <c r="B20" s="7">
         <v>4</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="21" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>260</v>
+        <v>45</v>
       </c>
       <c r="B21" s="7">
         <v>5</v>
@@ -994,7 +994,7 @@
     </row>
     <row r="22" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>261</v>
+        <v>46</v>
       </c>
       <c r="B22" s="7">
         <v>6</v>
@@ -1015,10 +1015,10 @@
     </row>
     <row r="23" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>262</v>
+        <v>47</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>13</v>
@@ -1036,7 +1036,7 @@
     </row>
     <row r="24" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>263</v>
+        <v>48</v>
       </c>
       <c r="B24" s="7">
         <v>1</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="25" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>264</v>
+        <v>49</v>
       </c>
       <c r="B25" s="7">
         <v>2</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="26" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>265</v>
+        <v>50</v>
       </c>
       <c r="B26" s="7">
         <v>3</v>
@@ -1099,7 +1099,7 @@
     </row>
     <row r="27" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>266</v>
+        <v>51</v>
       </c>
       <c r="B27" s="7">
         <v>4</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="28" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>267</v>
+        <v>52</v>
       </c>
       <c r="B28" s="7">
         <v>5</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="29" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <v>268</v>
+        <v>53</v>
       </c>
       <c r="B29" s="7">
         <v>6</v>

--- a/src/assets/ExcelSample/ThuongMaiBienGioiTongQuan.xlsx
+++ b/src/assets/ExcelSample/ThuongMaiBienGioiTongQuan.xlsx
@@ -574,7 +574,7 @@
     </row>
     <row r="2" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>26</v>
+        <v>241</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>15</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>27</v>
+        <v>242</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="4" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>28</v>
+        <v>243</v>
       </c>
       <c r="B4" s="7">
         <v>2</v>
@@ -637,7 +637,7 @@
     </row>
     <row r="5" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>29</v>
+        <v>244</v>
       </c>
       <c r="B5" s="7">
         <v>3</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="6" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>30</v>
+        <v>245</v>
       </c>
       <c r="B6" s="7">
         <v>4</v>
@@ -679,7 +679,7 @@
     </row>
     <row r="7" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>31</v>
+        <v>246</v>
       </c>
       <c r="B7" s="7">
         <v>5</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="8" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>32</v>
+        <v>247</v>
       </c>
       <c r="B8" s="7">
         <v>6</v>
@@ -721,7 +721,7 @@
     </row>
     <row r="9" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>33</v>
+        <v>248</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>16</v>
@@ -742,7 +742,7 @@
     </row>
     <row r="10" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>34</v>
+        <v>249</v>
       </c>
       <c r="B10" s="7">
         <v>1</v>
@@ -763,7 +763,7 @@
     </row>
     <row r="11" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>35</v>
+        <v>250</v>
       </c>
       <c r="B11" s="7">
         <v>2</v>
@@ -784,7 +784,7 @@
     </row>
     <row r="12" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>36</v>
+        <v>251</v>
       </c>
       <c r="B12" s="7">
         <v>3</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="13" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>37</v>
+        <v>252</v>
       </c>
       <c r="B13" s="7">
         <v>4</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="14" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>38</v>
+        <v>253</v>
       </c>
       <c r="B14" s="7">
         <v>5</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="15" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>39</v>
+        <v>254</v>
       </c>
       <c r="B15" s="7">
         <v>6</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="16" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>40</v>
+        <v>255</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>17</v>
@@ -889,7 +889,7 @@
     </row>
     <row r="17" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>41</v>
+        <v>256</v>
       </c>
       <c r="B17" s="7">
         <v>1</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="18" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>42</v>
+        <v>257</v>
       </c>
       <c r="B18" s="7">
         <v>2</v>
@@ -931,7 +931,7 @@
     </row>
     <row r="19" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>43</v>
+        <v>258</v>
       </c>
       <c r="B19" s="7">
         <v>3</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="20" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>44</v>
+        <v>259</v>
       </c>
       <c r="B20" s="7">
         <v>4</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="21" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>45</v>
+        <v>260</v>
       </c>
       <c r="B21" s="7">
         <v>5</v>
@@ -994,7 +994,7 @@
     </row>
     <row r="22" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>46</v>
+        <v>261</v>
       </c>
       <c r="B22" s="7">
         <v>6</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="23" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>47</v>
+        <v>262</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>18</v>
@@ -1036,7 +1036,7 @@
     </row>
     <row r="24" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>48</v>
+        <v>263</v>
       </c>
       <c r="B24" s="7">
         <v>1</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="25" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>49</v>
+        <v>264</v>
       </c>
       <c r="B25" s="7">
         <v>2</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="26" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>50</v>
+        <v>265</v>
       </c>
       <c r="B26" s="7">
         <v>3</v>
@@ -1099,7 +1099,7 @@
     </row>
     <row r="27" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>51</v>
+        <v>266</v>
       </c>
       <c r="B27" s="7">
         <v>4</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="28" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>52</v>
+        <v>267</v>
       </c>
       <c r="B28" s="7">
         <v>5</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="29" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <v>53</v>
+        <v>268</v>
       </c>
       <c r="B29" s="7">
         <v>6</v>
